--- a/proj3/[61C SP22] Project 3B ROM Control Logic.xlsx
+++ b/proj3/[61C SP22] Project 3B ROM Control Logic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18498\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18498\Desktop\61c\proj3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A3A19-A99B-4731-9314-CF77898D9D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA565598-0C7F-49AB-B50C-29C213E4620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Logic for ROM" sheetId="1" r:id="rId1"/>
@@ -793,10 +793,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,15 +818,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,10 +1049,10 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1069,20 +1069,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="31"/>
@@ -1091,11 +1091,11 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
-      <c r="O1" s="33"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="38" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="31"/>
@@ -1113,7 +1113,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="31"/>
@@ -1122,7 +1122,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
-      <c r="O2" s="33"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1248,10 +1248,10 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2164,10 +2164,10 @@
       <c r="A17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2391,7 +2391,7 @@
         <v>62</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -2990,10 +2990,10 @@
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="33" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -3216,10 +3216,10 @@
       <c r="A31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -3664,7 +3664,7 @@
       <c r="A37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -3690,7 +3690,7 @@
         <v>100</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L37" s="27" t="s">
         <v>99</v>
@@ -3706,15 +3706,15 @@
       </c>
       <c r="P37" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="Q37" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>0001000001000111</v>
+        <v>0001000001100111</v>
       </c>
       <c r="R37" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>01000111</v>
+        <v>01100111</v>
       </c>
       <c r="S37" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="T37" s="12" t="str">
         <f t="shared" ref="T37:U37" si="38">BIN2HEX(R37,2)</f>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="U37" s="13" t="str">
         <f t="shared" si="38"/>
@@ -3918,7 +3918,7 @@
         <v>100</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>99</v>
@@ -3934,15 +3934,15 @@
       </c>
       <c r="P40" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="Q40" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>0010000001100001</v>
+        <v>0010000001000001</v>
       </c>
       <c r="R40" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>01100001</v>
+        <v>01000001</v>
       </c>
       <c r="S40" s="12" t="str">
         <f t="shared" si="3"/>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="T40" s="12" t="str">
         <f t="shared" ref="T40:U40" si="41">BIN2HEX(R40,2)</f>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="U40" s="13" t="str">
         <f t="shared" si="41"/>
@@ -3966,6 +3966,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="H2:O2"/>
     <mergeCell ref="C5:C16"/>
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B38"/>
@@ -3976,12 +3982,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="H2:O2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
